--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_19_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>117046.665405357</v>
+        <v>109402.6035513268</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33937088.13219456</v>
+        <v>33937088.13219457</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10494200.71426642</v>
+        <v>10494200.71426641</v>
       </c>
     </row>
     <row r="9">
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>104.8891084058001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>74.18125311796771</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>30.70785528783207</v>
       </c>
     </row>
     <row r="9">
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>105.3918965517241</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>39.36037526809191</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1265,19 +1265,19 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>118.5811223965373</v>
+        <v>65.52873313770795</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="V9" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="X9" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1341,25 +1341,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>119.0839105424614</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>104.8891084058001</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>104.8891084057998</v>
       </c>
     </row>
     <row r="11">
@@ -1375,19 +1375,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>96.68434682674909</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>185.6008941282112</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H12" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,7 +1542,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
         <v>239.8247518556274</v>
@@ -1587,13 +1587,13 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
-        <v>6.12293108676087</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>149.3055235017</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>178.0787107184188</v>
       </c>
       <c r="H14" t="n">
-        <v>218.5550421735446</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H15" t="n">
-        <v>31.62322353306971</v>
+        <v>31.62322353306972</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,16 +1770,16 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>74.4281100935485</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>239.8247518556274</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>79.8029445384564</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>296.8669302863551</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H17" t="n">
         <v>267.0243359415286</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T17" t="n">
-        <v>169.7002009594338</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>55.96684102370025</v>
       </c>
       <c r="T19" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>29.3002639366724</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
@@ -2092,10 +2092,10 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>29.17160265248774</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T20" t="n">
-        <v>20.79680112926771</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2146,10 +2146,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>84.42043961684993</v>
+        <v>23.80999130968864</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -2292,13 +2292,13 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U22" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>422.5780800823367</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>315.6410800891011</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U23" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>49.34995949258661</v>
       </c>
       <c r="H25" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>109.5236135272851</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2563,16 +2563,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>296.8669302863556</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
         <v>209.6535390155789</v>
@@ -2614,16 +2614,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>253.5999082581252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2718,7 +2718,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,7 +2727,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>124.955498477721</v>
+        <v>49.34995949258617</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U28" t="n">
         <v>275.6027656317444</v>
@@ -2794,22 +2794,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>143.4833800044717</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>308.4446333804855</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2958,19 +2958,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
-        <v>53.19117033386377</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,10 +3000,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>100.1472502492086</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
@@ -3012,7 +3012,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>389.2844302488242</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>256.4799845637012</v>
@@ -3091,10 +3091,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>401.5266111030789</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>6.122931086761096</v>
       </c>
       <c r="T34" t="n">
         <v>239.8247518556274</v>
@@ -3249,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>81.94411774374035</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3268,22 +3268,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>281.6587179357154</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>109.2763050553292</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
         <v>358.9907805655117</v>
@@ -3429,19 +3429,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>147.3160242984194</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>49.34995949258617</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,25 +3502,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>40.06170608735101</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>109.5540470185018</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>156.167405244824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>83.52738940623971</v>
       </c>
       <c r="H39" t="n">
-        <v>31.62322353306972</v>
+        <v>31.62322353306971</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3660,16 +3660,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>78.58591473075461</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3681,7 +3681,7 @@
         <v>131.0206200144773</v>
       </c>
       <c r="I40" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
-        <v>239.8247518556274</v>
+        <v>178.7865964885608</v>
       </c>
       <c r="U40" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>200.6809321206154</v>
       </c>
       <c r="G41" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>40.061706087351</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>156.167405244824</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3900,19 +3900,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>82.17043591154908</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>267.0243359415286</v>
+        <v>32.52127443762018</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
@@ -4042,10 +4042,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>399.9697536079773</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4149,13 +4149,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6027656317444</v>
+        <v>7.722803593221053</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>203.8897703989944</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>235.7620855184085</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="C8" t="n">
-        <v>235.7620855184085</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="D8" t="n">
-        <v>235.7620855184085</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="E8" t="n">
-        <v>235.7620855184085</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="F8" t="n">
-        <v>235.7620855184085</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="G8" t="n">
-        <v>115.4753071926899</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="H8" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="I8" t="n">
-        <v>23.57954741585586</v>
+        <v>23.57954741585574</v>
       </c>
       <c r="J8" t="n">
-        <v>55.41632306558061</v>
+        <v>55.41632306558044</v>
       </c>
       <c r="K8" t="n">
-        <v>103.1313969318075</v>
+        <v>103.1313969318072</v>
       </c>
       <c r="L8" t="n">
-        <v>162.3261653183102</v>
+        <v>162.3261653183099</v>
       </c>
       <c r="M8" t="n">
-        <v>228.1917507590941</v>
+        <v>228.1917507590937</v>
       </c>
       <c r="N8" t="n">
-        <v>295.1231102326594</v>
+        <v>295.1231102326588</v>
       </c>
       <c r="O8" t="n">
-        <v>358.3244950336439</v>
+        <v>358.3244950336432</v>
       </c>
       <c r="P8" t="n">
-        <v>412.2654147455687</v>
+        <v>412.2654147455679</v>
       </c>
       <c r="Q8" t="n">
-        <v>452.7727990245032</v>
+        <v>452.7727990245023</v>
       </c>
       <c r="R8" t="n">
-        <v>476.3356421698458</v>
+        <v>476.3356421698449</v>
       </c>
       <c r="S8" t="n">
-        <v>476.3356421698458</v>
+        <v>401.405083464827</v>
       </c>
       <c r="T8" t="n">
-        <v>476.3356421698458</v>
+        <v>401.405083464827</v>
       </c>
       <c r="U8" t="n">
-        <v>476.3356421698458</v>
+        <v>281.1183051391085</v>
       </c>
       <c r="V8" t="n">
-        <v>476.3356421698458</v>
+        <v>281.1183051391085</v>
       </c>
       <c r="W8" t="n">
-        <v>356.0488638441271</v>
+        <v>281.1183051391085</v>
       </c>
       <c r="X8" t="n">
-        <v>235.7620855184085</v>
+        <v>281.1183051391085</v>
       </c>
       <c r="Y8" t="n">
-        <v>235.7620855184085</v>
+        <v>250.1002694948337</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>115.9831740067546</v>
+        <v>49.28466765965135</v>
       </c>
       <c r="C9" t="n">
-        <v>9.526712843396915</v>
+        <v>49.28466765965135</v>
       </c>
       <c r="D9" t="n">
-        <v>9.526712843396915</v>
+        <v>49.28466765965135</v>
       </c>
       <c r="E9" t="n">
-        <v>9.526712843396915</v>
+        <v>49.28466765965135</v>
       </c>
       <c r="F9" t="n">
-        <v>9.526712843396915</v>
+        <v>49.28466765965135</v>
       </c>
       <c r="G9" t="n">
-        <v>9.526712843396915</v>
+        <v>49.28466765965135</v>
       </c>
       <c r="H9" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="I9" t="n">
-        <v>42.50045791160449</v>
+        <v>16.43678475114687</v>
       </c>
       <c r="J9" t="n">
-        <v>67.70899752367966</v>
+        <v>67.70899752367953</v>
       </c>
       <c r="K9" t="n">
-        <v>100.1176749029957</v>
+        <v>100.1176749029955</v>
       </c>
       <c r="L9" t="n">
-        <v>143.6951411186853</v>
+        <v>143.695141118685</v>
       </c>
       <c r="M9" t="n">
-        <v>194.5479887761014</v>
+        <v>194.5479887761011</v>
       </c>
       <c r="N9" t="n">
-        <v>246.7467599936385</v>
+        <v>246.7467599936381</v>
       </c>
       <c r="O9" t="n">
-        <v>294.4984377999714</v>
+        <v>294.4984377999709</v>
       </c>
       <c r="P9" t="n">
-        <v>332.8233691018337</v>
+        <v>332.8233691018331</v>
       </c>
       <c r="Q9" t="n">
-        <v>358.442570732809</v>
+        <v>358.4425707328083</v>
       </c>
       <c r="R9" t="n">
-        <v>476.3356421698458</v>
+        <v>476.3356421698449</v>
       </c>
       <c r="S9" t="n">
-        <v>476.3356421698458</v>
+        <v>476.3356421698449</v>
       </c>
       <c r="T9" t="n">
-        <v>356.5567306581919</v>
+        <v>410.1450026368066</v>
       </c>
       <c r="U9" t="n">
-        <v>356.5567306581919</v>
+        <v>289.8582243110882</v>
       </c>
       <c r="V9" t="n">
-        <v>236.2699523324733</v>
+        <v>169.5714459853698</v>
       </c>
       <c r="W9" t="n">
-        <v>236.2699523324733</v>
+        <v>49.28466765965135</v>
       </c>
       <c r="X9" t="n">
-        <v>115.9831740067546</v>
+        <v>49.28466765965135</v>
       </c>
       <c r="Y9" t="n">
-        <v>115.9831740067546</v>
+        <v>49.28466765965135</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>129.8134911691155</v>
+        <v>129.8134911691153</v>
       </c>
       <c r="C10" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="D10" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="E10" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="F10" t="n">
-        <v>129.8134911691155</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="G10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="H10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="I10" t="n">
-        <v>9.526712843396915</v>
+        <v>9.526712843396899</v>
       </c>
       <c r="J10" t="n">
-        <v>21.42271513642519</v>
+        <v>21.42271513642516</v>
       </c>
       <c r="K10" t="n">
-        <v>40.97150121137715</v>
+        <v>40.97150121137709</v>
       </c>
       <c r="L10" t="n">
-        <v>78.52328420971232</v>
+        <v>65.98721697583436</v>
       </c>
       <c r="M10" t="n">
-        <v>196.4163556467491</v>
+        <v>92.36278178728944</v>
       </c>
       <c r="N10" t="n">
-        <v>314.309427083786</v>
+        <v>210.255853224326</v>
       </c>
       <c r="O10" t="n">
-        <v>338.0922538360045</v>
+        <v>328.1489246613626</v>
       </c>
       <c r="P10" t="n">
-        <v>358.442570732809</v>
+        <v>358.4425707328083</v>
       </c>
       <c r="Q10" t="n">
-        <v>476.3356421698458</v>
+        <v>476.3356421698449</v>
       </c>
       <c r="R10" t="n">
-        <v>476.3356421698458</v>
+        <v>476.3356421698449</v>
       </c>
       <c r="S10" t="n">
-        <v>356.0488638441271</v>
+        <v>476.3356421698449</v>
       </c>
       <c r="T10" t="n">
-        <v>356.0488638441271</v>
+        <v>476.3356421698449</v>
       </c>
       <c r="U10" t="n">
-        <v>235.7620855184085</v>
+        <v>476.3356421698449</v>
       </c>
       <c r="V10" t="n">
-        <v>129.8134911691155</v>
+        <v>356.0488638441265</v>
       </c>
       <c r="W10" t="n">
-        <v>129.8134911691155</v>
+        <v>235.762085518408</v>
       </c>
       <c r="X10" t="n">
-        <v>129.8134911691155</v>
+        <v>235.762085518408</v>
       </c>
       <c r="Y10" t="n">
-        <v>129.8134911691155</v>
+        <v>129.8134911691153</v>
       </c>
     </row>
     <row r="11">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1106.599419841793</v>
+        <v>852.7315322122766</v>
       </c>
       <c r="C11" t="n">
-        <v>668.4569470252163</v>
+        <v>414.5890593957</v>
       </c>
       <c r="D11" t="n">
-        <v>668.4569470252163</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="E11" t="n">
-        <v>234.6822021835115</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I11" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M11" t="n">
         <v>1131.588690455489</v>
@@ -5065,28 +5065,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R11" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184047</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W11" t="n">
-        <v>2360.327577447737</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="X11" t="n">
-        <v>1941.185114027047</v>
+        <v>1279.031102697184</v>
       </c>
       <c r="Y11" t="n">
-        <v>1532.898990326701</v>
+        <v>1279.031102697184</v>
       </c>
     </row>
     <row r="12">
@@ -5114,22 +5114,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043167</v>
       </c>
       <c r="J12" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.8524940391952</v>
+        <v>566.2333208532364</v>
       </c>
       <c r="C13" t="n">
-        <v>724.2907825224202</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="D13" t="n">
-        <v>558.4127897239429</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E13" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F13" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J13" t="n">
         <v>192.6919004158277</v>
@@ -5205,16 +5205,16 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>1106.33113894078</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1690.512214359095</v>
+        <v>818.7256495113487</v>
       </c>
       <c r="N13" t="n">
-        <v>1887.361501150536</v>
+        <v>1120.185357954412</v>
       </c>
       <c r="O13" t="n">
-        <v>2005.127382498298</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P13" t="n">
         <v>2105.896438675981</v>
@@ -5223,28 +5223,28 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R13" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S13" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T13" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U13" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V13" t="n">
-        <v>1833.50894252437</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.482538110662</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X13" t="n">
-        <v>1316.090783444074</v>
+        <v>985.4716102581153</v>
       </c>
       <c r="Y13" t="n">
-        <v>1088.671112758182</v>
+        <v>758.0519395722235</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>701.7439652528259</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="C14" t="n">
-        <v>701.7439652528259</v>
+        <v>1088.726211555612</v>
       </c>
       <c r="D14" t="n">
-        <v>701.7439652528259</v>
+        <v>1088.726211555612</v>
       </c>
       <c r="E14" t="n">
-        <v>267.9692204111211</v>
+        <v>654.9514667139074</v>
       </c>
       <c r="F14" t="n">
-        <v>267.9692204111211</v>
+        <v>227.0840371231151</v>
       </c>
       <c r="G14" t="n">
-        <v>267.9692204111211</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228017</v>
       </c>
       <c r="L14" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867021</v>
       </c>
       <c r="M14" t="n">
         <v>1131.588690455489</v>
@@ -5302,28 +5302,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S14" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="T14" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916848</v>
       </c>
       <c r="U14" t="n">
-        <v>2360.327577447737</v>
+        <v>1889.485634438362</v>
       </c>
       <c r="V14" t="n">
-        <v>2360.327577447737</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="W14" t="n">
-        <v>1955.47212285877</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="X14" t="n">
-        <v>1536.32965943808</v>
+        <v>1526.868684372189</v>
       </c>
       <c r="Y14" t="n">
-        <v>1128.043535737734</v>
+        <v>1526.868684372189</v>
       </c>
     </row>
     <row r="15">
@@ -5351,22 +5351,22 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043082</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668988</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210689</v>
       </c>
       <c r="L15" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960912</v>
       </c>
       <c r="M15" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987884</v>
       </c>
       <c r="N15" t="n">
         <v>1061.861364220108</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>471.6552262893761</v>
+        <v>896.8524940391951</v>
       </c>
       <c r="C16" t="n">
-        <v>299.0935147726011</v>
+        <v>724.29078252242</v>
       </c>
       <c r="D16" t="n">
-        <v>223.9136055871985</v>
+        <v>558.4127897239428</v>
       </c>
       <c r="E16" t="n">
-        <v>223.9136055871985</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F16" t="n">
-        <v>47.20655154895473</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5442,13 +5442,13 @@
         <v>564.2504555545214</v>
       </c>
       <c r="L16" t="n">
-        <v>688.1212571728194</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>818.7256495113488</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1120.185357954413</v>
+        <v>1539.854607180194</v>
       </c>
       <c r="O16" t="n">
         <v>1657.620488527956</v>
@@ -5460,7 +5460,7 @@
         <v>2343.856484770969</v>
       </c>
       <c r="R16" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S16" t="n">
         <v>2215.901038951971</v>
@@ -5469,19 +5469,19 @@
         <v>1973.653814855378</v>
       </c>
       <c r="U16" t="n">
-        <v>1695.267182904121</v>
+        <v>1893.044779968048</v>
       </c>
       <c r="V16" t="n">
-        <v>1408.311674774551</v>
+        <v>1606.089271838478</v>
       </c>
       <c r="W16" t="n">
-        <v>1136.285270360843</v>
+        <v>1334.06286742477</v>
       </c>
       <c r="X16" t="n">
-        <v>890.893515694255</v>
+        <v>1088.671112758182</v>
       </c>
       <c r="Y16" t="n">
-        <v>663.4738450083632</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>316.9281030050443</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="C17" t="n">
-        <v>316.9281030050443</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="D17" t="n">
-        <v>316.9281030050443</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="E17" t="n">
-        <v>316.9281030050443</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F17" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G17" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H17" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I17" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J17" t="n">
         <v>276.0532770435805</v>
       </c>
       <c r="K17" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L17" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M17" t="n">
         <v>1131.588690455489</v>
@@ -5539,28 +5539,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R17" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S17" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T17" t="n">
-        <v>2188.913233044268</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U17" t="n">
-        <v>1929.842541565782</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V17" t="n">
-        <v>1567.225591499608</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W17" t="n">
-        <v>1162.370136910642</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X17" t="n">
-        <v>743.2276734899522</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y17" t="n">
-        <v>743.2276734899522</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="18">
@@ -5573,7 +5573,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
         <v>341.0245550495863</v>
@@ -5588,28 +5588,28 @@
         <v>79.14920158235847</v>
       </c>
       <c r="H18" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I18" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J18" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K18" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210683</v>
       </c>
       <c r="L18" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M18" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N18" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O18" t="n">
-        <v>1298.314267034639</v>
+        <v>1298.314267034638</v>
       </c>
       <c r="P18" t="n">
         <v>1488.088567599445</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.291841223631</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="C19" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D19" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364612</v>
       </c>
       <c r="E19" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F19" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="G19" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I19" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J19" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511378</v>
       </c>
       <c r="K19" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L19" t="n">
-        <v>688.1212571728194</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M19" t="n">
-        <v>1272.302332591134</v>
+        <v>1160.879221014855</v>
       </c>
       <c r="N19" t="n">
-        <v>1399.801244395024</v>
+        <v>1288.378132818744</v>
       </c>
       <c r="O19" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P19" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R19" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S19" t="n">
-        <v>2360.327577447737</v>
+        <v>2303.795414797534</v>
       </c>
       <c r="T19" t="n">
-        <v>2118.080353351143</v>
+        <v>2061.54819070094</v>
       </c>
       <c r="U19" t="n">
-        <v>2118.080353351143</v>
+        <v>1783.161558749683</v>
       </c>
       <c r="V19" t="n">
-        <v>1831.124845221573</v>
+        <v>1496.206050620114</v>
       </c>
       <c r="W19" t="n">
-        <v>1559.098440807865</v>
+        <v>1224.179646206405</v>
       </c>
       <c r="X19" t="n">
-        <v>1313.706686141277</v>
+        <v>978.7878915398176</v>
       </c>
       <c r="Y19" t="n">
-        <v>1284.110459942618</v>
+        <v>751.3682208539258</v>
       </c>
     </row>
     <row r="20">
@@ -5728,46 +5728,46 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>485.3490243655314</v>
+        <v>914.3179809915974</v>
       </c>
       <c r="C20" t="n">
-        <v>47.20655154895473</v>
+        <v>476.1755081750208</v>
       </c>
       <c r="D20" t="n">
-        <v>47.20655154895473</v>
+        <v>476.1755081750208</v>
       </c>
       <c r="E20" t="n">
-        <v>47.20655154895473</v>
+        <v>476.1755081750208</v>
       </c>
       <c r="F20" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="H20" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435806</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228016</v>
       </c>
       <c r="L20" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M20" t="n">
         <v>1131.588690455489</v>
       </c>
       <c r="N20" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O20" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P20" t="n">
         <v>2043.069798152528</v>
@@ -5776,28 +5776,28 @@
         <v>2243.650993163596</v>
       </c>
       <c r="R20" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S20" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662533</v>
       </c>
       <c r="T20" t="n">
-        <v>2339.320707620193</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U20" t="n">
-        <v>2080.250016141707</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V20" t="n">
-        <v>1717.633066075534</v>
+        <v>1745.473006065472</v>
       </c>
       <c r="W20" t="n">
-        <v>1312.777611486567</v>
+        <v>1340.617551476505</v>
       </c>
       <c r="X20" t="n">
-        <v>893.635148065878</v>
+        <v>1340.617551476505</v>
       </c>
       <c r="Y20" t="n">
-        <v>485.3490243655314</v>
+        <v>1340.617551476505</v>
       </c>
     </row>
     <row r="21">
@@ -5822,10 +5822,10 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G21" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H21" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="I21" t="n">
         <v>81.42328772043084</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1000.857958515539</v>
+        <v>471.6552262893761</v>
       </c>
       <c r="C22" t="n">
-        <v>828.2962469987639</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="D22" t="n">
-        <v>662.4182542002866</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="E22" t="n">
-        <v>492.6602504510238</v>
+        <v>299.0935147726011</v>
       </c>
       <c r="F22" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G22" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H22" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I22" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895472</v>
       </c>
       <c r="J22" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K22" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L22" t="n">
-        <v>688.1212571728194</v>
+        <v>481.9462364092371</v>
       </c>
       <c r="M22" t="n">
-        <v>1272.302332591134</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N22" t="n">
-        <v>1399.801244395024</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O22" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.320157362629</v>
       </c>
       <c r="P22" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.327577447737</v>
+        <v>2360.327577447736</v>
       </c>
       <c r="S22" t="n">
         <v>2215.901038951971</v>
       </c>
       <c r="T22" t="n">
-        <v>2215.901038951971</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1937.514407000714</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1937.514407000714</v>
+        <v>1408.311674774551</v>
       </c>
       <c r="W22" t="n">
-        <v>1665.488002587005</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1420.096247920418</v>
+        <v>890.893515694255</v>
       </c>
       <c r="Y22" t="n">
-        <v>1192.676577234526</v>
+        <v>663.4738450083632</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>635.7574768324192</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="C23" t="n">
-        <v>635.7574768324192</v>
+        <v>1307.330533248896</v>
       </c>
       <c r="D23" t="n">
-        <v>635.7574768324192</v>
+        <v>880.4839877111824</v>
       </c>
       <c r="E23" t="n">
-        <v>635.7574768324192</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F23" t="n">
-        <v>635.7574768324192</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H23" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L23" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M23" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N23" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O23" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P23" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
         <v>2243.650993163596</v>
@@ -6016,25 +6016,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U23" t="n">
-        <v>1889.485634438363</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V23" t="n">
-        <v>1889.485634438363</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="W23" t="n">
-        <v>1889.485634438363</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="X23" t="n">
-        <v>1470.343171017674</v>
+        <v>1745.473006065473</v>
       </c>
       <c r="Y23" t="n">
-        <v>1062.057047317327</v>
+        <v>1745.473006065473</v>
       </c>
     </row>
     <row r="24">
@@ -6047,7 +6047,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C24" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D24" t="n">
         <v>341.0245550495863</v>
@@ -6059,13 +6059,13 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G24" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H24" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I24" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J24" t="n">
         <v>175.316627066898</v>
@@ -6077,7 +6077,7 @@
         <v>551.5786779960906</v>
       </c>
       <c r="M24" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N24" t="n">
         <v>1061.861364220108</v>
@@ -6123,49 +6123,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>750.8436067979059</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C25" t="n">
-        <v>578.2818952811308</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D25" t="n">
-        <v>412.4039024826535</v>
+        <v>443.520053268367</v>
       </c>
       <c r="E25" t="n">
-        <v>242.6458987333908</v>
+        <v>273.7620495191042</v>
       </c>
       <c r="F25" t="n">
-        <v>242.6458987333908</v>
+        <v>97.05499548086041</v>
       </c>
       <c r="G25" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H25" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I25" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J25" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K25" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M25" t="n">
-        <v>1236.93553127931</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N25" t="n">
-        <v>1364.434443083199</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O25" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P25" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q25" t="n">
         <v>2343.856484770969</v>
@@ -6183,16 +6183,16 @@
         <v>1839.693721399886</v>
       </c>
       <c r="V25" t="n">
-        <v>1552.738213270316</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W25" t="n">
-        <v>1280.711808856608</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.081896202785</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y25" t="n">
-        <v>942.6622255168929</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>446.7092428694776</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="C26" t="n">
-        <v>446.7092428694776</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="D26" t="n">
-        <v>446.7092428694776</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="E26" t="n">
-        <v>446.7092428694776</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F26" t="n">
-        <v>446.7092428694776</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895473</v>
@@ -6253,25 +6253,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S26" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T26" t="n">
-        <v>2148.556325916849</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U26" t="n">
-        <v>1889.485634438363</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V26" t="n">
-        <v>1526.868684372189</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="W26" t="n">
-        <v>1122.013229783223</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="X26" t="n">
-        <v>702.8707663625333</v>
+        <v>1444.163810064193</v>
       </c>
       <c r="Y26" t="n">
-        <v>446.7092428694776</v>
+        <v>1444.163810064193</v>
       </c>
     </row>
     <row r="27">
@@ -6302,7 +6302,7 @@
         <v>47.20655154895473</v>
       </c>
       <c r="I27" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J27" t="n">
         <v>175.316627066898</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>858.3289888817349</v>
+        <v>616.0817647851416</v>
       </c>
       <c r="C28" t="n">
-        <v>685.7672773649598</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="D28" t="n">
-        <v>519.8892845664825</v>
+        <v>443.5200532683665</v>
       </c>
       <c r="E28" t="n">
-        <v>350.1312808172198</v>
+        <v>273.7620495191038</v>
       </c>
       <c r="F28" t="n">
-        <v>173.424226778976</v>
+        <v>97.05499548085996</v>
       </c>
       <c r="G28" t="n">
         <v>47.20655154895473</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>358.0754347909401</v>
+        <v>320.0013704257351</v>
       </c>
       <c r="L28" t="n">
-        <v>481.9462364092379</v>
+        <v>862.082053811994</v>
       </c>
       <c r="M28" t="n">
-        <v>1066.127311827553</v>
+        <v>992.6864461505235</v>
       </c>
       <c r="N28" t="n">
-        <v>1635.885026789087</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O28" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P28" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6414,22 +6414,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>2360.327577447737</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>2081.940945496479</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.98543736691</v>
+        <v>1552.738213270316</v>
       </c>
       <c r="W28" t="n">
-        <v>1522.959032953201</v>
+        <v>1280.711808856608</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.567278286614</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>1050.147607600722</v>
+        <v>807.9003835041287</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>446.7092428694776</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C29" t="n">
-        <v>446.7092428694776</v>
+        <v>1455.419164361049</v>
       </c>
       <c r="D29" t="n">
-        <v>446.7092428694776</v>
+        <v>1019.509379535494</v>
       </c>
       <c r="E29" t="n">
-        <v>446.7092428694776</v>
+        <v>1019.509379535494</v>
       </c>
       <c r="F29" t="n">
-        <v>446.7092428694776</v>
+        <v>591.6419499447015</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895473</v>
+        <v>192.1392586241787</v>
       </c>
       <c r="H29" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435802</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228012</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867019</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
         <v>2043.069798152528</v>
@@ -6490,25 +6490,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U29" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>1997.710627381563</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W29" t="n">
-        <v>1592.855172792596</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X29" t="n">
-        <v>1281.294937054732</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y29" t="n">
-        <v>873.0088133543854</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="30">
@@ -6548,10 +6548,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L30" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M30" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N30" t="n">
         <v>1061.861364220108</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>616.0817647851416</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C31" t="n">
-        <v>443.5200532683665</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D31" t="n">
-        <v>277.6420604698892</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E31" t="n">
-        <v>277.6420604698892</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F31" t="n">
-        <v>100.9350064316454</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G31" t="n">
-        <v>100.9350064316454</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H31" t="n">
-        <v>100.9350064316454</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I31" t="n">
         <v>47.20655154895473</v>
@@ -6627,13 +6627,13 @@
         <v>202.912315818696</v>
       </c>
       <c r="L31" t="n">
-        <v>481.9462364092379</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M31" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N31" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O31" t="n">
         <v>2173.32015736263</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2360.327577447737</v>
+        <v>2259.168738812172</v>
       </c>
       <c r="T31" t="n">
-        <v>2118.080353351143</v>
+        <v>2259.168738812172</v>
       </c>
       <c r="U31" t="n">
-        <v>1839.693721399886</v>
+        <v>1980.782106860915</v>
       </c>
       <c r="V31" t="n">
-        <v>1552.738213270316</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="W31" t="n">
-        <v>1280.711808856608</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X31" t="n">
-        <v>1035.320054190021</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y31" t="n">
-        <v>807.9003835041287</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>716.4307943255671</v>
+        <v>1312.34036541817</v>
       </c>
       <c r="C32" t="n">
-        <v>716.4307943255671</v>
+        <v>874.1978926015931</v>
       </c>
       <c r="D32" t="n">
-        <v>716.4307943255671</v>
+        <v>874.1978926015931</v>
       </c>
       <c r="E32" t="n">
-        <v>716.4307943255671</v>
+        <v>440.4231477598883</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G32" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H32" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228014</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O32" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6730,22 +6730,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T32" t="n">
-        <v>2148.556325916849</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U32" t="n">
-        <v>1889.485634438363</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V32" t="n">
-        <v>1526.868684372189</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W32" t="n">
-        <v>1122.013229783223</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="X32" t="n">
-        <v>716.4307943255671</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="Y32" t="n">
-        <v>716.4307943255671</v>
+        <v>1738.639935903077</v>
       </c>
     </row>
     <row r="33">
@@ -6758,25 +6758,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>81.42328772043091</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
         <v>175.316627066898</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.291841223631</v>
+        <v>896.8524940391952</v>
       </c>
       <c r="C34" t="n">
-        <v>919.7301297068562</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D34" t="n">
-        <v>753.852136908379</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E34" t="n">
-        <v>584.0941331591162</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F34" t="n">
-        <v>407.3870791208724</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H34" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I34" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J34" t="n">
         <v>192.6919004158277</v>
@@ -6867,16 +6867,16 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M34" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N34" t="n">
-        <v>1539.854607180194</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O34" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P34" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q34" t="n">
         <v>2343.856484770969</v>
@@ -6885,25 +6885,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S34" t="n">
-        <v>2360.327577447737</v>
+        <v>2354.142798572221</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>2111.895574475627</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="V34" t="n">
-        <v>1839.693721399886</v>
+        <v>1833.50894252437</v>
       </c>
       <c r="W34" t="n">
-        <v>1756.921885295098</v>
+        <v>1561.482538110662</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.53013062851</v>
+        <v>1316.090783444074</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.110459942618</v>
+        <v>1088.671112758182</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1592.855172792596</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="C35" t="n">
-        <v>1592.855172792596</v>
+        <v>855.1756387123307</v>
       </c>
       <c r="D35" t="n">
-        <v>1308.351417301975</v>
+        <v>855.1756387123307</v>
       </c>
       <c r="E35" t="n">
-        <v>874.5766724602698</v>
+        <v>855.1756387123307</v>
       </c>
       <c r="F35" t="n">
-        <v>446.7092428694776</v>
+        <v>427.3082091215385</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895473</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
         <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001352</v>
       </c>
       <c r="J35" t="n">
         <v>276.0532770435805</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867023</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
         <v>1131.588690455489</v>
@@ -6964,25 +6964,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V35" t="n">
-        <v>1997.710627381563</v>
+        <v>1698.173566117874</v>
       </c>
       <c r="W35" t="n">
-        <v>1592.855172792596</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="X35" t="n">
-        <v>1592.855172792596</v>
+        <v>1293.318111528907</v>
       </c>
       <c r="Y35" t="n">
-        <v>1592.855172792596</v>
+        <v>1293.318111528907</v>
       </c>
     </row>
     <row r="36">
@@ -7022,10 +7022,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
         <v>1061.861364220108</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>616.0817647851416</v>
+        <v>843.5014354710333</v>
       </c>
       <c r="C37" t="n">
-        <v>443.5200532683665</v>
+        <v>670.9397239542583</v>
       </c>
       <c r="D37" t="n">
-        <v>443.5200532683665</v>
+        <v>505.061731155781</v>
       </c>
       <c r="E37" t="n">
-        <v>273.7620495191038</v>
+        <v>356.2576662078826</v>
       </c>
       <c r="F37" t="n">
-        <v>97.05499548085996</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895473</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H37" t="n">
         <v>47.20655154895473</v>
@@ -7095,22 +7095,22 @@
         <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K37" t="n">
-        <v>477.6707703898316</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L37" t="n">
-        <v>1019.751453776091</v>
+        <v>733.4227107706873</v>
       </c>
       <c r="M37" t="n">
-        <v>1150.35584611462</v>
+        <v>1317.603786189002</v>
       </c>
       <c r="N37" t="n">
-        <v>1277.854757918509</v>
+        <v>1887.361501150536</v>
       </c>
       <c r="O37" t="n">
-        <v>1657.620488527956</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P37" t="n">
         <v>2105.896438675981</v>
@@ -7140,7 +7140,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y37" t="n">
-        <v>807.9003835041287</v>
+        <v>1035.320054190021</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>716.4307943255671</v>
+        <v>1782.900983623584</v>
       </c>
       <c r="C38" t="n">
-        <v>716.4307943255671</v>
+        <v>1344.758510807007</v>
       </c>
       <c r="D38" t="n">
-        <v>716.4307943255671</v>
+        <v>908.8487259814518</v>
       </c>
       <c r="E38" t="n">
-        <v>716.4307943255671</v>
+        <v>475.073981139747</v>
       </c>
       <c r="F38" t="n">
-        <v>716.4307943255671</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G38" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001354</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L38" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R38" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S38" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T38" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U38" t="n">
-        <v>2060.790516184047</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="V38" t="n">
-        <v>1698.173566117874</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="W38" t="n">
-        <v>1293.318111528907</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="X38" t="n">
-        <v>874.1756481082176</v>
+        <v>2209.200554108492</v>
       </c>
       <c r="Y38" t="n">
-        <v>716.4307943255671</v>
+        <v>2209.200554108492</v>
       </c>
     </row>
     <row r="39">
@@ -7232,46 +7232,46 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D39" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E39" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F39" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G39" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H39" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I39" t="n">
-        <v>81.42328772043082</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J39" t="n">
-        <v>175.3166270668979</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>335.7952991210681</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>551.5786779960904</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>803.3877032987876</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
         <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1298.314267034638</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>1488.088567599444</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
         <v>1614.947661807679</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>663.4738450083632</v>
+        <v>1092.291841223631</v>
       </c>
       <c r="C40" t="n">
-        <v>663.4738450083632</v>
+        <v>919.7301297068562</v>
       </c>
       <c r="D40" t="n">
-        <v>663.4738450083632</v>
+        <v>753.852136908379</v>
       </c>
       <c r="E40" t="n">
         <v>584.0941331591162</v>
@@ -7329,55 +7329,55 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J40" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K40" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>1106.33113894078</v>
+        <v>481.9462364092378</v>
       </c>
       <c r="M40" t="n">
-        <v>1412.355695376305</v>
+        <v>1066.127311827553</v>
       </c>
       <c r="N40" t="n">
-        <v>1539.854607180194</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O40" t="n">
-        <v>1657.620488527956</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P40" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R40" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2215.901038951971</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T40" t="n">
-        <v>1973.653814855378</v>
+        <v>2035.308517246355</v>
       </c>
       <c r="U40" t="n">
-        <v>1695.267182904121</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="V40" t="n">
-        <v>1408.311674774551</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="W40" t="n">
-        <v>1136.285270360843</v>
+        <v>1756.921885295098</v>
       </c>
       <c r="X40" t="n">
-        <v>890.893515694255</v>
+        <v>1511.53013062851</v>
       </c>
       <c r="Y40" t="n">
-        <v>663.4738450083632</v>
+        <v>1284.110459942618</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>716.4307943255671</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="C41" t="n">
-        <v>716.4307943255671</v>
+        <v>1519.101784779784</v>
       </c>
       <c r="D41" t="n">
-        <v>716.4307943255671</v>
+        <v>1083.191999954228</v>
       </c>
       <c r="E41" t="n">
-        <v>716.4307943255671</v>
+        <v>649.4172551125234</v>
       </c>
       <c r="F41" t="n">
-        <v>716.4307943255671</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G41" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H41" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001351</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435804</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228012</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867018</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N41" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O41" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P41" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q41" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R41" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662533</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U41" t="n">
-        <v>2060.790516184047</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V41" t="n">
-        <v>1698.173566117874</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="W41" t="n">
-        <v>1293.318111528907</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="X41" t="n">
-        <v>874.1756481082176</v>
+        <v>1957.244257596361</v>
       </c>
       <c r="Y41" t="n">
-        <v>716.4307943255671</v>
+        <v>1957.244257596361</v>
       </c>
     </row>
     <row r="42">
@@ -7469,31 +7469,31 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>335.7952991210683</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
         <v>551.5786779960906</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>471.6552262893761</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C43" t="n">
-        <v>388.6547859746801</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6547859746801</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E43" t="n">
-        <v>388.6547859746801</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F43" t="n">
-        <v>211.9477319364363</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I43" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K43" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L43" t="n">
-        <v>1106.33113894078</v>
+        <v>744.992999204955</v>
       </c>
       <c r="M43" t="n">
-        <v>1412.355695376305</v>
+        <v>1160.879221014856</v>
       </c>
       <c r="N43" t="n">
-        <v>1539.854607180194</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O43" t="n">
-        <v>1657.620488527956</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P43" t="n">
-        <v>2105.896438675981</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R43" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T43" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U43" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V43" t="n">
-        <v>1408.311674774551</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W43" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X43" t="n">
-        <v>890.893515694255</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y43" t="n">
-        <v>663.4738450083632</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1188.845320663326</v>
+        <v>80.05632370816704</v>
       </c>
       <c r="C44" t="n">
-        <v>750.7028478467491</v>
+        <v>80.05632370816704</v>
       </c>
       <c r="D44" t="n">
-        <v>750.7028478467491</v>
+        <v>80.05632370816704</v>
       </c>
       <c r="E44" t="n">
-        <v>316.9281030050443</v>
+        <v>80.05632370816704</v>
       </c>
       <c r="F44" t="n">
-        <v>316.9281030050443</v>
+        <v>80.05632370816704</v>
       </c>
       <c r="G44" t="n">
-        <v>316.9281030050443</v>
+        <v>80.05632370816704</v>
       </c>
       <c r="H44" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
         <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.440802286702</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N44" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431967</v>
       </c>
       <c r="O44" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P44" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q44" t="n">
         <v>2243.650993163596</v>
       </c>
       <c r="R44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="U44" t="n">
-        <v>2360.327577447736</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V44" t="n">
-        <v>1997.710627381563</v>
+        <v>1738.639935903077</v>
       </c>
       <c r="W44" t="n">
-        <v>1592.855172792596</v>
+        <v>1333.784481314111</v>
       </c>
       <c r="X44" t="n">
-        <v>1188.845320663326</v>
+        <v>914.6420178934214</v>
       </c>
       <c r="Y44" t="n">
-        <v>1188.845320663326</v>
+        <v>506.3558941930748</v>
       </c>
     </row>
     <row r="45">
@@ -7706,25 +7706,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C45" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D45" t="n">
-        <v>341.0245550495863</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E45" t="n">
-        <v>246.90414037654</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F45" t="n">
-        <v>163.5203019927016</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G45" t="n">
-        <v>79.14920158235847</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H45" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I45" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J45" t="n">
         <v>175.316627066898</v>
@@ -7733,10 +7733,10 @@
         <v>335.7952991210682</v>
       </c>
       <c r="L45" t="n">
-        <v>551.5786779960905</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M45" t="n">
-        <v>803.3877032987879</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N45" t="n">
         <v>1061.861364220108</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>927.5506608361497</v>
+        <v>1029.196554659879</v>
       </c>
       <c r="C46" t="n">
-        <v>754.9889493193747</v>
+        <v>856.6348431431041</v>
       </c>
       <c r="D46" t="n">
-        <v>589.1109565208974</v>
+        <v>690.7568503446269</v>
       </c>
       <c r="E46" t="n">
-        <v>419.3529527716346</v>
+        <v>520.9988465953642</v>
       </c>
       <c r="F46" t="n">
-        <v>242.6458987333908</v>
+        <v>344.2917925571204</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H46" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I46" t="n">
-        <v>47.20655154895472</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="J46" t="n">
         <v>192.6919004158277</v>
@@ -7815,43 +7815,43 @@
         <v>688.1212571728194</v>
       </c>
       <c r="M46" t="n">
-        <v>1272.302332591134</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N46" t="n">
-        <v>1399.801244395024</v>
+        <v>1120.185357954413</v>
       </c>
       <c r="O46" t="n">
-        <v>1657.620488527956</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P46" t="n">
-        <v>2105.896438675981</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
       </c>
       <c r="R46" t="n">
-        <v>2360.327577447736</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2360.327577447736</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T46" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U46" t="n">
-        <v>1839.693721399886</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="V46" t="n">
-        <v>1552.738213270316</v>
+        <v>1965.853003145054</v>
       </c>
       <c r="W46" t="n">
-        <v>1552.738213270316</v>
+        <v>1693.826598731346</v>
       </c>
       <c r="X46" t="n">
-        <v>1346.788950241029</v>
+        <v>1448.434844064758</v>
       </c>
       <c r="Y46" t="n">
-        <v>1119.369279555137</v>
+        <v>1221.015173378866</v>
       </c>
     </row>
   </sheetData>
@@ -8528,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>6.309872867522046</v>
+        <v>32.63681545384279</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>106.4970253946638</v>
+        <v>106.4970253946637</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8616,22 +8616,22 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>12.66269417563421</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>92.44192588442596</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>93.07541273183037</v>
+        <v>93.07541273183017</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>95.06085321698799</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>10.04376684307192</v>
       </c>
       <c r="Q10" t="n">
-        <v>104.8520877340658</v>
+        <v>104.8520877340657</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8853,19 +8853,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>70.05088382580971</v>
+        <v>175.7179764032063</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
         <v>169.8916917821538</v>
@@ -9005,7 +9005,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9090,16 +9090,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>175.7179764032066</v>
+        <v>177.1920849464593</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>10.62967161639904</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>141.4680432173438</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>156.730423204286</v>
       </c>
       <c r="M22" t="n">
         <v>458.1582657371569</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>141.4680432173443</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9795,28 +9795,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>177.1920849464592</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>69.27619576520624</v>
+        <v>118.2717723303425</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>156.7304232042868</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M31" t="n">
         <v>458.158265737157</v>
@@ -10515,13 +10515,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>177.1920849464593</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P34" t="n">
         <v>351.0170646165068</v>
@@ -10743,25 +10743,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>45.75904403825052</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>264.6463123855403</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821538</v>
@@ -10980,28 +10980,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>156.7304232042867</v>
       </c>
       <c r="M40" t="n">
-        <v>177.1920849464593</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>177.1920849464593</v>
+        <v>288.1634641124963</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11463,13 +11463,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>175.7179764032071</v>
       </c>
       <c r="O46" t="n">
-        <v>141.4680432173438</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23020,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>302.9526642375974</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>314.6771375459497</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -23035,10 +23035,10 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>277.9210461097543</v>
+        <v>397.0049566522158</v>
       </c>
       <c r="H8" t="n">
-        <v>177.4693717387918</v>
+        <v>282.3584801445919</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>74.1812531179677</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.2079358176206</v>
       </c>
       <c r="U8" t="n">
-        <v>256.599767943293</v>
+        <v>137.5158574008318</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>281.7229895006155</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>295.8671282440209</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>373.495407175511</v>
       </c>
     </row>
     <row r="9">
@@ -23102,7 +23102,7 @@
         <v>120.0908620689655</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
         <v>94.13938596491228</v>
@@ -23117,7 +23117,7 @@
         <v>84.32851138425291</v>
       </c>
       <c r="H9" t="n">
-        <v>39.3603752680919</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -23150,22 +23150,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>59.05530966656962</v>
+        <v>59.05530966656963</v>
       </c>
       <c r="T9" t="n">
-        <v>9.478600938821369</v>
+        <v>62.53099019765074</v>
       </c>
       <c r="U9" t="n">
-        <v>174.5598441976481</v>
+        <v>55.47593365518692</v>
       </c>
       <c r="V9" t="n">
-        <v>78.0424322161592</v>
+        <v>78.04243221615941</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>64.3856161816767</v>
       </c>
       <c r="X9" t="n">
-        <v>34.23485086104736</v>
+        <v>153.3187614035088</v>
       </c>
       <c r="Y9" t="n">
         <v>125.2209214285714</v>
@@ -23181,7 +23181,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>51.75218385914609</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -23193,13 +23193,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>44.68149179608017</v>
+        <v>163.7654023385416</v>
       </c>
       <c r="H10" t="n">
         <v>136.9920546719889</v>
       </c>
       <c r="I10" t="n">
-        <v>82.66219243742788</v>
+        <v>82.66219243742789</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>13.56162857616403</v>
+        <v>13.56162857616404</v>
       </c>
       <c r="S10" t="n">
-        <v>35.60310718843823</v>
+        <v>154.6870177308997</v>
       </c>
       <c r="T10" t="n">
         <v>242.6944597176218</v>
       </c>
       <c r="U10" t="n">
-        <v>156.5554896577339</v>
+        <v>275.6394002001954</v>
       </c>
       <c r="V10" t="n">
-        <v>179.1968446424738</v>
+        <v>165.0020425058126</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>150.2222298271101</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>120.256365573233</v>
       </c>
     </row>
     <row r="11">
@@ -23263,19 +23263,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>334.8663401505508</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>237.9878611666732</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
         <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,16 +23308,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>277.963021961513</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>93.6323136182217</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23494,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>217.4289536888988</v>
       </c>
       <c r="H14" t="n">
-        <v>48.46929376798401</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>40.06170608735101</v>
       </c>
       <c r="T14" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>89.79110277694403</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>62.46433369811444</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>195.799821093288</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -23740,13 +23740,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>132.5700671069326</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>39.95333805614513</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>142.9822731108078</v>
+        <v>87.01543208710757</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>195.8452100423604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,10 +23980,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>394.4171526423966</v>
       </c>
       <c r="G20" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>267.0243359415286</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>188.8567378863112</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,10 +24034,10 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>90.5195438810114</v>
+        <v>151.1299921881727</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24180,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>8.972606894963235</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>79.86658431821644</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.0937685836068</v>
+        <v>113.7438090910202</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>133.4142235926366</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24451,16 +24451,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>429.4369973932878</v>
+        <v>132.5700671069322</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>150.6033542052179</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>38.13827010588576</v>
+        <v>113.7438090910206</v>
       </c>
       <c r="H28" t="n">
         <v>131.0206200144773</v>
@@ -24654,7 +24654,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>267.0243359415286</v>
+        <v>123.5409559370569</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,7 +24730,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>209.6535390155789</v>
@@ -24739,16 +24739,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>106.5064054059969</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>9.273163364250667</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>42.8350228615992</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>34.30432504606011</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24979,10 +24979,10 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>13.42442768340351</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>142.9822731108078</v>
+        <v>136.8593420240467</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>187.362022625831</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>149.8919690415845</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>286.2313593519883</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>20.74439941335072</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>113.7438090910206</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H37" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>62.46433369811443</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -25390,25 +25390,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>146.9259375451994</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>248.0358572185191</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -25548,16 +25548,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>89.4745089810155</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>61.03815536706665</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,22 +25630,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>222.9078231742689</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,19 +25684,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>248.0358572185191</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>88.66565849005823</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H43" t="n">
         <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
-        <v>62.46433369811444</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -25882,7 +25882,7 @@
         <v>395.5076644073176</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>234.5030615039085</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25921,7 +25921,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U44" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,10 +25930,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>14.98128517850512</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>267.8799620385234</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>39.04806672092724</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>89522.0834446189</v>
+        <v>89522.08344461872</v>
       </c>
     </row>
     <row r="5">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>394449.1342942485</v>
+        <v>394449.1342942484</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>394449.1342942485</v>
+        <v>394449.1342942486</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>394449.1342942484</v>
+        <v>394449.1342942485</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>394449.1342942485</v>
+        <v>394449.1342942486</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>394449.1342942485</v>
+        <v>394449.1342942486</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>394449.1342942484</v>
+        <v>394449.1342942485</v>
       </c>
     </row>
     <row r="16">
@@ -26319,7 +26319,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>38163.29078646977</v>
+        <v>38163.2907864697</v>
       </c>
       <c r="E2" t="n">
         <v>173027.328430899</v>
@@ -26334,28 +26334,28 @@
         <v>173027.328430899</v>
       </c>
       <c r="I2" t="n">
-        <v>173027.3284308991</v>
+        <v>173027.328430899</v>
       </c>
       <c r="J2" t="n">
         <v>173027.3284308991</v>
       </c>
       <c r="K2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
       <c r="L2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
       <c r="M2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
       <c r="N2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
       <c r="O2" t="n">
         <v>173027.328430899</v>
       </c>
       <c r="P2" t="n">
-        <v>173027.328430899</v>
+        <v>173027.3284308991</v>
       </c>
     </row>
     <row r="3">
@@ -26371,7 +26371,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117708.4675730584</v>
+        <v>117708.4675730582</v>
       </c>
       <c r="E3" t="n">
         <v>439858.2450180437</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>30139.06600310211</v>
+        <v>30139.06600310209</v>
       </c>
       <c r="M3" t="n">
         <v>117374.5815597479</v>
@@ -26423,31 +26423,31 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6359.985522141889</v>
+        <v>6359.985522141879</v>
       </c>
       <c r="E4" t="n">
         <v>17402.73254778062</v>
       </c>
       <c r="F4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778063</v>
       </c>
       <c r="G4" t="n">
         <v>17402.73254778061</v>
       </c>
       <c r="H4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.7325477806</v>
       </c>
       <c r="I4" t="n">
         <v>17402.73254778061</v>
       </c>
       <c r="J4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778062</v>
       </c>
       <c r="K4" t="n">
         <v>17402.73254778061</v>
       </c>
       <c r="L4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778062</v>
       </c>
       <c r="M4" t="n">
         <v>17402.73254778062</v>
@@ -26456,10 +26456,10 @@
         <v>17402.73254778061</v>
       </c>
       <c r="O4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778062</v>
       </c>
       <c r="P4" t="n">
-        <v>17402.73254778061</v>
+        <v>17402.73254778062</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>42922.5622723924</v>
       </c>
       <c r="E5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="F5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.0812096378</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963781</v>
@@ -26490,7 +26490,7 @@
         <v>46051.08120963781</v>
       </c>
       <c r="I5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="J5" t="n">
         <v>46051.08120963781</v>
@@ -26499,19 +26499,19 @@
         <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
         <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.0812096378</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="O5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
       <c r="P5" t="n">
-        <v>46051.08120963781</v>
+        <v>46051.08120963782</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-34967.96829972602</v>
       </c>
       <c r="D6" t="n">
-        <v>-128827.7245811229</v>
+        <v>-129994.6233772739</v>
       </c>
       <c r="E6" t="n">
-        <v>-330284.730344563</v>
+        <v>-330838.6107877851</v>
       </c>
       <c r="F6" t="n">
-        <v>109573.5146734806</v>
+        <v>109019.6342302587</v>
       </c>
       <c r="G6" t="n">
-        <v>109573.5146734806</v>
+        <v>109019.6342302587</v>
       </c>
       <c r="H6" t="n">
-        <v>109573.5146734806</v>
+        <v>109019.6342302587</v>
       </c>
       <c r="I6" t="n">
-        <v>109573.5146734806</v>
+        <v>109019.6342302587</v>
       </c>
       <c r="J6" t="n">
-        <v>109573.5146734806</v>
+        <v>109019.6342302587</v>
       </c>
       <c r="K6" t="n">
-        <v>109573.5146734806</v>
+        <v>109019.6342302587</v>
       </c>
       <c r="L6" t="n">
-        <v>79434.44867037848</v>
+        <v>78880.56822715665</v>
       </c>
       <c r="M6" t="n">
-        <v>-7801.066886267246</v>
+        <v>-8354.94732948916</v>
       </c>
       <c r="N6" t="n">
-        <v>109573.5146734806</v>
+        <v>109019.6342302587</v>
       </c>
       <c r="O6" t="n">
-        <v>109573.5146734806</v>
+        <v>109019.6342302587</v>
       </c>
       <c r="P6" t="n">
-        <v>109573.5146734806</v>
+        <v>109019.6342302587</v>
       </c>
     </row>
   </sheetData>
@@ -26743,13 +26743,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480516</v>
+        <v>94.250482174805</v>
       </c>
       <c r="E3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.701928093221</v>
       </c>
       <c r="F3" t="n">
-        <v>466.7019280932212</v>
+        <v>466.701928093221</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932211</v>
@@ -26758,28 +26758,28 @@
         <v>466.7019280932212</v>
       </c>
       <c r="I3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="J3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="K3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="L3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="M3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="N3" t="n">
-        <v>466.701928093221</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="O3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
       <c r="P3" t="n">
-        <v>466.7019280932211</v>
+        <v>466.7019280932212</v>
       </c>
     </row>
     <row r="4">
@@ -26795,22 +26795,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="F4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="G4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="H4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="I4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="J4" t="n">
         <v>590.0818943619341</v>
@@ -26819,19 +26819,19 @@
         <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
-        <v>590.0818943619341</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="O4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="P4" t="n">
-        <v>590.081894361934</v>
+        <v>590.0818943619342</v>
       </c>
     </row>
   </sheetData>
@@ -26965,7 +26965,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>94.25048217480516</v>
+        <v>94.25048217480501</v>
       </c>
       <c r="E3" t="n">
         <v>372.451445918416</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="E4" t="n">
-        <v>470.9979838194727</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,7 +27041,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424613</v>
       </c>
       <c r="M4" t="n">
         <v>470.9979838194727</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="M4" t="n">
-        <v>470.9979838194727</v>
+        <v>470.9979838194728</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3788964107529852</v>
+        <v>0.3788964107529846</v>
       </c>
       <c r="H8" t="n">
-        <v>3.880372866624011</v>
+        <v>3.880372866624005</v>
       </c>
       <c r="I8" t="n">
-        <v>14.60740387555448</v>
+        <v>14.60740387555446</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214621</v>
+        <v>32.15835924214616</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932009</v>
+        <v>48.19704430932001</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990178</v>
+        <v>59.79269533990168</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463017</v>
+        <v>66.53089438463006</v>
       </c>
       <c r="N8" t="n">
-        <v>67.6074338116821</v>
+        <v>67.60743381168199</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725709</v>
+        <v>63.83978262725699</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679276</v>
+        <v>54.48577748679267</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670147</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
-        <v>23.80085166196223</v>
+        <v>23.80085166196219</v>
       </c>
       <c r="S8" t="n">
-        <v>8.634101960033661</v>
+        <v>8.634101960033647</v>
       </c>
       <c r="T8" t="n">
-        <v>1.658619038071194</v>
+        <v>1.658619038071191</v>
       </c>
       <c r="U8" t="n">
-        <v>0.03031171286023882</v>
+        <v>0.03031171286023877</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2027274522250526</v>
+        <v>0.2027274522250523</v>
       </c>
       <c r="H9" t="n">
-        <v>1.957920393857745</v>
+        <v>1.957920393857742</v>
       </c>
       <c r="I9" t="n">
-        <v>6.979870613888874</v>
+        <v>6.979870613888862</v>
       </c>
       <c r="J9" t="n">
-        <v>19.1532984578064</v>
+        <v>19.15329845780637</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688492</v>
+        <v>32.73603775688487</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211066</v>
+        <v>44.01764264211059</v>
       </c>
       <c r="M9" t="n">
-        <v>51.3665127852688</v>
+        <v>51.36651278526872</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286577</v>
+        <v>52.72603153286568</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619486</v>
+        <v>48.23401798619478</v>
       </c>
       <c r="P9" t="n">
-        <v>38.7120518200629</v>
+        <v>38.71205182006283</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542953</v>
+        <v>25.87798144542948</v>
       </c>
       <c r="R9" t="n">
-        <v>12.58688514779757</v>
+        <v>12.58688514779755</v>
       </c>
       <c r="S9" t="n">
-        <v>3.765573509531128</v>
+        <v>3.765573509531122</v>
       </c>
       <c r="T9" t="n">
-        <v>0.8171338973457162</v>
+        <v>0.8171338973457147</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01333733238322715</v>
+        <v>0.01333733238322713</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1699598858889929</v>
+        <v>0.1699598858889926</v>
       </c>
       <c r="H10" t="n">
-        <v>1.51109789454032</v>
+        <v>1.511097894540317</v>
       </c>
       <c r="I10" t="n">
-        <v>5.111157295643533</v>
+        <v>5.111157295643524</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323518</v>
+        <v>12.01616393235178</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055753</v>
+        <v>19.7462485605575</v>
       </c>
       <c r="L10" t="n">
-        <v>25.26839976207809</v>
+        <v>25.26839976207805</v>
       </c>
       <c r="M10" t="n">
-        <v>26.64198465803549</v>
+        <v>26.64198465803545</v>
       </c>
       <c r="N10" t="n">
-        <v>26.00849781063108</v>
+        <v>26.00849781063104</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254733</v>
+        <v>24.02305732547325</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333782</v>
+        <v>20.55587565333779</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.23182280839558</v>
+        <v>14.23182280839555</v>
       </c>
       <c r="R10" t="n">
-        <v>7.642014505517806</v>
+        <v>7.642014505517793</v>
       </c>
       <c r="S10" t="n">
-        <v>2.96193728408363</v>
+        <v>2.961937284083624</v>
       </c>
       <c r="T10" t="n">
-        <v>0.7261922397075149</v>
+        <v>0.7261922397075137</v>
       </c>
       <c r="U10" t="n">
-        <v>0.009270539230308714</v>
+        <v>0.009270539230308699</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H11" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062837</v>
@@ -31773,28 +31773,28 @@
         <v>329.4423112816032</v>
       </c>
       <c r="N11" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O11" t="n">
         <v>316.116681354841</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q11" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S11" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31834,46 +31834,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I12" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I13" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L13" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O13" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R13" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S13" t="n">
         <v>14.66668190417548</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U13" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.876188655651139</v>
+        <v>1.876188655651138</v>
       </c>
       <c r="H14" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.33176314699058</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994721</v>
+        <v>334.773032299472</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184534</v>
       </c>
       <c r="Q14" t="n">
-        <v>202.6072676879471</v>
+        <v>202.607267687947</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405459</v>
       </c>
       <c r="S14" t="n">
-        <v>42.75364899065037</v>
+        <v>42.75364899065035</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112861</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1500950924520911</v>
+        <v>0.150095092452091</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,46 +32071,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879932</v>
       </c>
       <c r="I15" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742732</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002368</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.04621765960066</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06604272567356906</v>
+        <v>0.06604272567356904</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.841593640823841</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051974</v>
       </c>
       <c r="I16" t="n">
-        <v>25.30901603495698</v>
+        <v>25.30901603495697</v>
       </c>
       <c r="J16" t="n">
-        <v>59.50067040624558</v>
+        <v>59.50067040624556</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116988</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366646</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M16" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>128.7867795998885</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P16" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320034</v>
       </c>
       <c r="Q16" t="n">
-        <v>70.47199114207639</v>
+        <v>70.47199114207636</v>
       </c>
       <c r="R16" t="n">
-        <v>37.84111043195198</v>
+        <v>37.84111043195197</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701865</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04590510768130049</v>
+        <v>0.04590510768130047</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32706,28 +32706,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I23" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N23" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O23" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
@@ -32739,7 +32739,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T23" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U23" t="n">
         <v>0.1500950924520911</v>
@@ -32782,13 +32782,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H24" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
         <v>162.0996687415861</v>
@@ -32800,25 +32800,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P24" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q24" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R24" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S24" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T24" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U24" t="n">
         <v>0.06604272567356906</v>
@@ -32858,10 +32858,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H25" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I25" t="n">
         <v>25.30901603495698</v>
@@ -32870,7 +32870,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L25" t="n">
         <v>125.1220218366646</v>
@@ -32894,10 +32894,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S25" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T25" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U25" t="n">
         <v>0.04590510768130049</v>
@@ -32943,28 +32943,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I26" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L26" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
         <v>202.6072676879471</v>
@@ -32976,7 +32976,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T26" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U26" t="n">
         <v>0.1500950924520911</v>
@@ -33019,13 +33019,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H27" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916786</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -33037,25 +33037,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N27" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O27" t="n">
-        <v>238.8413159742733</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R27" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S27" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T27" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U27" t="n">
         <v>0.06604272567356906</v>
@@ -33095,10 +33095,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H28" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I28" t="n">
         <v>25.30901603495698</v>
@@ -33107,7 +33107,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L28" t="n">
         <v>125.1220218366646</v>
@@ -33131,10 +33131,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S28" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T28" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U28" t="n">
         <v>0.04590510768130049</v>
@@ -33180,28 +33180,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I29" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J29" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K29" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -33213,7 +33213,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T29" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U29" t="n">
         <v>0.1500950924520911</v>
@@ -33256,13 +33256,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H30" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I30" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33274,25 +33274,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P30" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q30" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R30" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S30" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T30" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U30" t="n">
         <v>0.06604272567356906</v>
@@ -33332,10 +33332,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H31" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I31" t="n">
         <v>25.30901603495698</v>
@@ -33344,7 +33344,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
         <v>125.1220218366646</v>
@@ -33368,10 +33368,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S31" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T31" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U31" t="n">
         <v>0.04590510768130049</v>
@@ -33417,28 +33417,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I32" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J32" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M32" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N32" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O32" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
@@ -33450,7 +33450,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T32" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U32" t="n">
         <v>0.1500950924520911</v>
@@ -33493,13 +33493,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H33" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I33" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33511,25 +33511,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N33" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O33" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S33" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T33" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U33" t="n">
         <v>0.06604272567356906</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H34" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I34" t="n">
         <v>25.30901603495698</v>
@@ -33581,7 +33581,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K34" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L34" t="n">
         <v>125.1220218366646</v>
@@ -33605,10 +33605,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S34" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T34" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U34" t="n">
         <v>0.04590510768130049</v>
@@ -33654,28 +33654,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I35" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J35" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P35" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
         <v>202.6072676879471</v>
@@ -33687,7 +33687,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T35" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U35" t="n">
         <v>0.1500950924520911</v>
@@ -33730,13 +33730,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H36" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I36" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
@@ -33748,7 +33748,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742733</v>
@@ -33760,13 +33760,13 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S36" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T36" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U36" t="n">
         <v>0.06604272567356906</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H37" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I37" t="n">
         <v>25.30901603495698</v>
@@ -33818,7 +33818,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
         <v>125.1220218366646</v>
@@ -33842,10 +33842,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S37" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T37" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U37" t="n">
         <v>0.04590510768130049</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H38" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I38" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N38" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
-        <v>269.7982739184534</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q38" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R38" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S38" t="n">
-        <v>42.75364899065035</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T38" t="n">
-        <v>8.213015840112861</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U38" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33967,46 +33967,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H39" t="n">
-        <v>9.695072128879932</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S39" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T39" t="n">
-        <v>4.04621765960066</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.841593640823841</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H40" t="n">
-        <v>7.482532552051974</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I40" t="n">
-        <v>25.30901603495697</v>
+        <v>25.30901603495698</v>
       </c>
       <c r="J40" t="n">
-        <v>59.50067040624556</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116988</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>125.1220218366645</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
         <v>131.9236286247772</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O40" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P40" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.47199114207636</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R40" t="n">
-        <v>37.84111043195197</v>
+        <v>37.84111043195198</v>
       </c>
       <c r="S40" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T40" t="n">
-        <v>3.595900101701865</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04590510768130047</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.876188655651138</v>
+        <v>1.876188655651139</v>
       </c>
       <c r="H41" t="n">
         <v>19.21451706968723</v>
       </c>
       <c r="I41" t="n">
-        <v>72.33176314699058</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J41" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N41" t="n">
-        <v>334.773032299472</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q41" t="n">
-        <v>202.607267687947</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R41" t="n">
-        <v>117.8551356405459</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S41" t="n">
-        <v>42.75364899065036</v>
+        <v>42.75364899065037</v>
       </c>
       <c r="T41" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U41" t="n">
-        <v>0.150095092452091</v>
+        <v>0.1500950924520911</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34204,46 +34204,46 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H42" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N42" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O42" t="n">
-        <v>238.8413159742732</v>
+        <v>238.8413159742733</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S42" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T42" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06604272567356904</v>
+        <v>0.06604272567356906</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8415936408238411</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H43" t="n">
-        <v>7.482532552051975</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I43" t="n">
         <v>25.30901603495698</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624557</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L43" t="n">
         <v>125.1220218366646</v>
@@ -34301,28 +34301,28 @@
         <v>131.9236286247772</v>
       </c>
       <c r="N43" t="n">
-        <v>128.7867795998884</v>
+        <v>128.7867795998885</v>
       </c>
       <c r="O43" t="n">
         <v>118.9554357048099</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320034</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.47199114207638</v>
+        <v>70.47199114207639</v>
       </c>
       <c r="R43" t="n">
         <v>37.84111043195198</v>
       </c>
       <c r="S43" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T43" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04590510768130048</v>
+        <v>0.04590510768130049</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,28 +34365,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I44" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J44" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M44" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N44" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O44" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -34398,7 +34398,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T44" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U44" t="n">
         <v>0.1500950924520911</v>
@@ -34441,13 +34441,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H45" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K45" t="n">
         <v>162.0996687415861</v>
@@ -34459,25 +34459,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P45" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q45" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T45" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U45" t="n">
         <v>0.06604272567356906</v>
@@ -34517,10 +34517,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H46" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I46" t="n">
         <v>25.30901603495698</v>
@@ -34529,7 +34529,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K46" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L46" t="n">
         <v>125.1220218366646</v>
@@ -34553,10 +34553,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S46" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T46" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U46" t="n">
         <v>0.04590510768130049</v>
@@ -35169,31 +35169,31 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.19478239642308</v>
+        <v>14.19478239642306</v>
       </c>
       <c r="J8" t="n">
-        <v>32.15835924214621</v>
+        <v>32.15835924214616</v>
       </c>
       <c r="K8" t="n">
-        <v>48.19704430932009</v>
+        <v>48.19704430932002</v>
       </c>
       <c r="L8" t="n">
-        <v>59.79269533990177</v>
+        <v>59.79269533990167</v>
       </c>
       <c r="M8" t="n">
-        <v>66.53089438463019</v>
+        <v>66.53089438463007</v>
       </c>
       <c r="N8" t="n">
-        <v>67.60743381168209</v>
+        <v>67.60743381168197</v>
       </c>
       <c r="O8" t="n">
-        <v>63.83978262725708</v>
+        <v>63.83978262725697</v>
       </c>
       <c r="P8" t="n">
-        <v>54.48577748679276</v>
+        <v>54.48577748679264</v>
       </c>
       <c r="Q8" t="n">
-        <v>40.91654977670146</v>
+        <v>40.9165497767014</v>
       </c>
       <c r="R8" t="n">
         <v>23.80085166196221</v>
@@ -35248,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>33.30681320020967</v>
+        <v>6.97987061388886</v>
       </c>
       <c r="J9" t="n">
-        <v>25.46317132532845</v>
+        <v>51.79011391164915</v>
       </c>
       <c r="K9" t="n">
-        <v>32.73603775688493</v>
+        <v>32.73603775688487</v>
       </c>
       <c r="L9" t="n">
-        <v>44.01764264211066</v>
+        <v>44.01764264211059</v>
       </c>
       <c r="M9" t="n">
-        <v>51.36651278526881</v>
+        <v>51.36651278526872</v>
       </c>
       <c r="N9" t="n">
-        <v>52.72603153286576</v>
+        <v>52.72603153286568</v>
       </c>
       <c r="O9" t="n">
-        <v>48.23401798619486</v>
+        <v>48.23401798619477</v>
       </c>
       <c r="P9" t="n">
-        <v>38.71205182006292</v>
+        <v>38.71205182006281</v>
       </c>
       <c r="Q9" t="n">
-        <v>25.87798144542955</v>
+        <v>25.8779814454295</v>
       </c>
       <c r="R9" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>12.0161639323518</v>
+        <v>12.01616393235178</v>
       </c>
       <c r="K10" t="n">
-        <v>19.74624856055753</v>
+        <v>19.7462485605575</v>
       </c>
       <c r="L10" t="n">
-        <v>37.9310939377123</v>
+        <v>25.26839976207805</v>
       </c>
       <c r="M10" t="n">
-        <v>119.0839105424614</v>
+        <v>26.64198465803544</v>
       </c>
       <c r="N10" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="O10" t="n">
-        <v>24.0230573254733</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="P10" t="n">
-        <v>20.55587565333781</v>
+        <v>30.59964249640973</v>
       </c>
       <c r="Q10" t="n">
-        <v>119.0839105424614</v>
+        <v>119.0839105424612</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35433,7 +35433,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R11" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916864</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562335</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M12" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N12" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O12" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P12" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q12" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R12" t="n">
         <v>62.32672164233622</v>
@@ -35573,25 +35573,25 @@
         <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>547.556245844706</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.081894361934</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N13" t="n">
-        <v>198.8376634256981</v>
+        <v>304.5047560030947</v>
       </c>
       <c r="O13" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
         <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,22 +35643,22 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785918</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062836</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766671</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816031</v>
       </c>
       <c r="N14" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
         <v>316.1166813548411</v>
@@ -35670,7 +35670,7 @@
         <v>202.6072676879471</v>
       </c>
       <c r="R14" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916778</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.8417569156242</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646689</v>
       </c>
       <c r="M15" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N15" t="n">
         <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P15" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.1404992002369</v>
+        <v>128.1404992002367</v>
       </c>
       <c r="R15" t="n">
         <v>62.32672164233622</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L16" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>131.9236286247773</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
-        <v>304.5047560030951</v>
+        <v>305.9788645463477</v>
       </c>
       <c r="O16" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -35828,7 +35828,7 @@
         <v>240.36368292423</v>
       </c>
       <c r="R16" t="n">
-        <v>16.63746735027015</v>
+        <v>16.63746735027013</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>71.91914166785919</v>
       </c>
       <c r="J17" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K17" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L17" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M17" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N17" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O17" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P17" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q17" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R17" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,10 +35959,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916794</v>
       </c>
       <c r="J18" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K18" t="n">
         <v>162.0996687415861</v>
@@ -35974,13 +35974,13 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N18" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O18" t="n">
-        <v>238.8413159742734</v>
+        <v>238.8413159742731</v>
       </c>
       <c r="P18" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917234</v>
       </c>
       <c r="Q18" t="n">
         <v>128.1404992002369</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K19" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>142.5533002411762</v>
       </c>
       <c r="N19" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>260.4234789221537</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P19" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36126,19 +36126,19 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M20" t="n">
-        <v>329.4423112816035</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N20" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O20" t="n">
         <v>316.1166813548411</v>
       </c>
       <c r="P20" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184529</v>
       </c>
       <c r="Q20" t="n">
         <v>202.6072676879471</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624559</v>
       </c>
       <c r="K22" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L22" t="n">
-        <v>125.1220218366645</v>
+        <v>281.8524450409506</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619341</v>
+        <v>590.081894361934</v>
       </c>
       <c r="N22" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O22" t="n">
-        <v>260.4234789221541</v>
+        <v>542.8637682561045</v>
       </c>
       <c r="P22" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q22" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36354,16 +36354,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M23" t="n">
         <v>329.4423112816032</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916779</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J24" t="n">
-        <v>94.84175691562345</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K24" t="n">
-        <v>162.0996687415861</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L24" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646691</v>
       </c>
       <c r="M24" t="n">
-        <v>254.3525508108055</v>
+        <v>254.3525508108054</v>
       </c>
       <c r="N24" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O24" t="n">
         <v>238.8413159742734</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K25" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M25" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N25" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O25" t="n">
-        <v>296.1475206512691</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q25" t="n">
-        <v>240.3636829242305</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R25" t="n">
         <v>16.63746735027015</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J26" t="n">
         <v>159.239166912571</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J27" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K27" t="n">
         <v>162.0996687415861</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>167.0540751263761</v>
+        <v>216.0496516915124</v>
       </c>
       <c r="L28" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O28" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36828,28 +36828,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J29" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K29" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N29" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O29" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P29" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q29" t="n">
         <v>202.6072676879471</v>
@@ -36922,7 +36922,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N30" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O30" t="n">
         <v>238.8413159742734</v>
@@ -36995,16 +36995,16 @@
         <v>97.77787936116991</v>
       </c>
       <c r="L31" t="n">
-        <v>281.8524450409514</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M31" t="n">
         <v>590.0818943619341</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O31" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
         <v>101.7869254320035</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J32" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K32" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L32" t="n">
         <v>296.0766412766674</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916786</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K34" t="n">
         <v>375.3116718572664</v>
@@ -37235,19 +37235,19 @@
         <v>547.556245844706</v>
       </c>
       <c r="M34" t="n">
-        <v>309.1157135712365</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N34" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O34" t="n">
-        <v>118.9554357048098</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P34" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q34" t="n">
-        <v>240.3636829242305</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R34" t="n">
         <v>16.63746735027015</v>
@@ -37302,19 +37302,19 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J35" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K35" t="n">
-        <v>238.6582327062836</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L35" t="n">
-        <v>296.0766412766677</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M35" t="n">
-        <v>329.442311281603</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
         <v>334.7730322994721</v>
@@ -37326,10 +37326,10 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37396,7 +37396,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N36" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O36" t="n">
         <v>238.8413159742734</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K37" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L37" t="n">
-        <v>547.5562458447062</v>
+        <v>170.8810658749151</v>
       </c>
       <c r="M37" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
-        <v>128.7867795998884</v>
+        <v>575.512843395489</v>
       </c>
       <c r="O37" t="n">
-        <v>383.6017480903502</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P37" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q37" t="n">
         <v>240.36368292423</v>
@@ -37539,25 +37539,25 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J38" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K38" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L38" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M38" t="n">
         <v>329.4423112816032</v>
       </c>
       <c r="N38" t="n">
-        <v>334.7730322994719</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O38" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P38" t="n">
         <v>269.7982739184536</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916778</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562335</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
         <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
-        <v>254.3525508108054</v>
+        <v>254.3525508108055</v>
       </c>
       <c r="N39" t="n">
-        <v>261.0845059811312</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O39" t="n">
-        <v>238.8413159742731</v>
+        <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
         <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002376</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233622</v>
@@ -37700,31 +37700,31 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L40" t="n">
-        <v>547.556245844706</v>
+        <v>281.8524450409513</v>
       </c>
       <c r="M40" t="n">
-        <v>309.1157135712365</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N40" t="n">
-        <v>128.7867795998884</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O40" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P40" t="n">
-        <v>452.8039900485103</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R40" t="n">
-        <v>16.63746735027013</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>71.91914166785918</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125712</v>
       </c>
       <c r="K41" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L41" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
         <v>329.4423112816032</v>
@@ -37794,7 +37794,7 @@
         <v>334.7730322994721</v>
       </c>
       <c r="O41" t="n">
-        <v>316.1166813548409</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P41" t="n">
         <v>269.7982739184536</v>
@@ -37855,13 +37855,13 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562353</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
-        <v>162.099668741586</v>
+        <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
         <v>217.963008964669</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>146.9548978453262</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K43" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L43" t="n">
-        <v>547.556245844706</v>
+        <v>547.5562458447062</v>
       </c>
       <c r="M43" t="n">
-        <v>309.1157135712365</v>
+        <v>420.0870927372735</v>
       </c>
       <c r="N43" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P43" t="n">
         <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R43" t="n">
-        <v>16.63746735027014</v>
+        <v>16.63746735027015</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,13 +38013,13 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
         <v>296.0766412766673</v>
@@ -38034,7 +38034,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184531</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
         <v>202.6072676879471</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>34.5623597691678</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J45" t="n">
         <v>94.84175691562339</v>
@@ -38107,7 +38107,7 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N45" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O45" t="n">
         <v>238.8413159742734</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>146.9548978453262</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K46" t="n">
         <v>375.3116718572664</v>
@@ -38183,13 +38183,13 @@
         <v>125.1220218366645</v>
       </c>
       <c r="M46" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N46" t="n">
-        <v>128.7867795998884</v>
+        <v>304.5047560030955</v>
       </c>
       <c r="O46" t="n">
-        <v>260.4234789221537</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P46" t="n">
         <v>452.8039900485103</v>
